--- a/nr-update-schemas/ig/StructureDefinition-ExerciceProfessionnel.xlsx
+++ b/nr-update-schemas/ig/StructureDefinition-ExerciceProfessionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:04:41+00:00</t>
+    <t>2025-07-28T13:13:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-schemas/ig/StructureDefinition-ExerciceProfessionnel.xlsx
+++ b/nr-update-schemas/ig/StructureDefinition-ExerciceProfessionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:13:45+00:00</t>
+    <t>2025-07-28T13:15:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-schemas/ig/StructureDefinition-ExerciceProfessionnel.xlsx
+++ b/nr-update-schemas/ig/StructureDefinition-ExerciceProfessionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:15:42+00:00</t>
+    <t>2025-07-28T13:16:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-schemas/ig/StructureDefinition-ExerciceProfessionnel.xlsx
+++ b/nr-update-schemas/ig/StructureDefinition-ExerciceProfessionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:16:41+00:00</t>
+    <t>2025-07-28T13:25:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-schemas/ig/StructureDefinition-ExerciceProfessionnel.xlsx
+++ b/nr-update-schemas/ig/StructureDefinition-ExerciceProfessionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:25:08+00:00</t>
+    <t>2025-07-28T13:28:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-schemas/ig/StructureDefinition-ExerciceProfessionnel.xlsx
+++ b/nr-update-schemas/ig/StructureDefinition-ExerciceProfessionnel.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/ExerciceProfessionnel</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/StructureDefinition/ExerciceProfessionnel</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:28:11+00:00</t>
+    <t>2025-07-28T15:40:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -285,7 +285,7 @@
     <t>Profession exercée ou future profession de l'étudiant.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/profession-vs</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/ValueSet/profession-vs</t>
   </si>
   <si>
     <t>ExerciceProfessionnel.typeProfession</t>
@@ -294,7 +294,7 @@
     <t>Indique le type de profession de la personne.Exemples :** Professionnel de santé** Usager de titre** Professionnel secteur social** etc.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/typeProfession-vs</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/ValueSet/typeProfession-vs</t>
   </si>
   <si>
     <t>ExerciceProfessionnel.categorieProfessionnelle</t>
@@ -334,7 +334,7 @@
     <t>ExerciceProfessionnel.boiteLettresMSS</t>
   </si>
   <si>
-    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/BoiteLettreMSS
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/BoiteLettreMSS
 </t>
   </si>
   <si>
@@ -423,7 +423,7 @@
     <t>ExerciceProfessionnel.NiveauFormation.diplome</t>
   </si>
   <si>
-    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/Diplome
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/Diplome
 </t>
   </si>
   <si>
@@ -466,7 +466,7 @@
     <t>ExerciceProfessionnel.professionnel</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/Professionnel)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/mos/StructureDefinition/Professionnel)
 </t>
   </si>
   <si>
@@ -792,7 +792,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="68.80078125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="65.640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/nr-update-schemas/ig/StructureDefinition-ExerciceProfessionnel.xlsx
+++ b/nr-update-schemas/ig/StructureDefinition-ExerciceProfessionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T15:40:53+00:00</t>
+    <t>2025-07-28T15:46:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-schemas/ig/StructureDefinition-ExerciceProfessionnel.xlsx
+++ b/nr-update-schemas/ig/StructureDefinition-ExerciceProfessionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T15:46:53+00:00</t>
+    <t>2025-07-29T07:47:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-schemas/ig/StructureDefinition-ExerciceProfessionnel.xlsx
+++ b/nr-update-schemas/ig/StructureDefinition-ExerciceProfessionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-29T07:47:20+00:00</t>
+    <t>2025-08-04T15:47:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
